--- a/doc/Suivi projet psy-conscience.xlsx
+++ b/doc/Suivi projet psy-conscience.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Willc\OneDrive Cegep de Sainte-Foy\HTML\Site Web Psychologue\site-croissens\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62EA254F-F2C6-4554-B9EA-D03CEE10D8AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA076C3-C5C3-40EF-B74E-40F3026C7E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4E6BE3D2-A170-4D1E-984B-F7FB46A76933}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Suivi projet site internet Psy-Conscience</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>Fond d'écran</t>
+  </si>
+  <si>
+    <t>Avertissements console</t>
   </si>
 </sst>
 </file>
@@ -562,7 +565,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -572,17 +575,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34650CB6-5147-4D6B-BFF7-3E5C6D643E1A}">
   <dimension ref="B3:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F6" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N14" sqref="E14:N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="50.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="5" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1"/>
     <col min="6" max="6" width="38.85546875" customWidth="1"/>
-    <col min="7" max="15" width="21.7109375" customWidth="1"/>
+    <col min="7" max="14" width="21.7109375" customWidth="1"/>
+    <col min="15" max="15" width="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
@@ -754,7 +759,9 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
+      <c r="O14" s="8" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D15" s="1"/>
@@ -793,7 +800,9 @@
       <c r="K17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
+      <c r="O17" s="6" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="18" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
@@ -805,8 +814,12 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
+      <c r="N18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="19" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D19" s="1"/>
@@ -819,7 +832,9 @@
       <c r="K19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
+      <c r="O19" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="20" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D20" s="1"/>
@@ -832,7 +847,9 @@
       <c r="K20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
+      <c r="O20" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="21" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D21" s="1"/>
@@ -846,7 +863,9 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
+      <c r="O21" s="8" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="22" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D22" s="1"/>
@@ -860,7 +879,9 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
+      <c r="O22" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="23" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D23" s="1"/>
@@ -873,8 +894,6 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
     </row>
     <row r="24" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D24" s="1"/>
@@ -935,8 +954,6 @@
     <row r="28" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -949,10 +966,6 @@
     <row r="29" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="6" t="s">
-        <v>27</v>
-      </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -965,12 +978,6 @@
     <row r="30" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -983,10 +990,6 @@
     <row r="31" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -999,10 +1002,6 @@
     <row r="32" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -1015,10 +1014,6 @@
     <row r="33" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="8" t="s">
-        <v>19</v>
-      </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -1031,10 +1026,6 @@
     <row r="34" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="9" t="s">
-        <v>20</v>
-      </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
